--- a/analysis/edcr/out/top_f1/magnesium_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/magnesium_shift_new_20_results.xlsx
@@ -774,31 +774,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L5">
-        <v>0.5222222222222223</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M5">
-        <v>0.6619718309859155</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N5">
-        <v>0.5838509316770187</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O5">
-        <v>0.00536828963795255</v>
+        <v>0.01375831231368951</v>
       </c>
       <c r="P5">
-        <v>0.0140845070422535</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="Q5">
-        <v>0.00885093167701867</v>
+        <v>0.04038461538461535</v>
       </c>
       <c r="R5">
-        <v>0.01038647342995167</v>
+        <v>0.02661934338952971</v>
       </c>
       <c r="S5">
-        <v>0.02173913043478258</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T5">
-        <v>0.01539292465568464</v>
+        <v>0.07023411371237452</v>
       </c>
       <c r="U5" t="s">
         <v>31</v>
@@ -839,31 +839,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L6">
-        <v>0.5222222222222223</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M6">
-        <v>0.6619718309859155</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N6">
-        <v>0.5838509316770187</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O6">
-        <v>0.00536828963795255</v>
+        <v>0.01375831231368951</v>
       </c>
       <c r="P6">
-        <v>0.0140845070422535</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="Q6">
-        <v>0.00885093167701867</v>
+        <v>0.04038461538461535</v>
       </c>
       <c r="R6">
-        <v>0.01038647342995167</v>
+        <v>0.02661934338952971</v>
       </c>
       <c r="S6">
-        <v>0.02173913043478258</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T6">
-        <v>0.01539292465568464</v>
+        <v>0.07023411371237452</v>
       </c>
       <c r="U6" t="s">
         <v>31</v>
@@ -1096,31 +1096,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L10">
-        <v>0.5222222222222223</v>
+        <v>0.5306122448979592</v>
       </c>
       <c r="M10">
-        <v>0.6619718309859155</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="N10">
-        <v>0.5838509316770187</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="O10">
-        <v>0.00536828963795255</v>
+        <v>0.01375831231368951</v>
       </c>
       <c r="P10">
-        <v>0.0140845070422535</v>
+        <v>0.08450704225352113</v>
       </c>
       <c r="Q10">
-        <v>0.00885093167701867</v>
+        <v>0.04038461538461535</v>
       </c>
       <c r="R10">
-        <v>0.01038647342995167</v>
+        <v>0.02661934338952971</v>
       </c>
       <c r="S10">
-        <v>0.02173913043478258</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="T10">
-        <v>0.01539292465568464</v>
+        <v>0.07023411371237452</v>
       </c>
       <c r="U10" t="s">
         <v>31</v>
@@ -1161,31 +1161,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L11">
-        <v>0.5222222222222223</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.6619718309859155</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="N11">
-        <v>0.5838509316770187</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="O11">
-        <v>0.00536828963795255</v>
+        <v>0.01647940074906362</v>
       </c>
       <c r="P11">
-        <v>0.0140845070422535</v>
+        <v>0.1408450704225351</v>
       </c>
       <c r="Q11">
-        <v>0.00885093167701867</v>
+        <v>0.06136363636363629</v>
       </c>
       <c r="R11">
-        <v>0.01038647342995167</v>
+        <v>0.03188405797101439</v>
       </c>
       <c r="S11">
-        <v>0.02173913043478258</v>
+        <v>0.217391304347826</v>
       </c>
       <c r="T11">
-        <v>0.01539292465568464</v>
+        <v>0.1067193675889327</v>
       </c>
       <c r="U11" t="s">
         <v>31</v>
@@ -1353,31 +1353,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L14">
-        <v>0.1955307262569832</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="M14">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="N14">
-        <v>0.3263403263403263</v>
+        <v>0.3294663573085847</v>
       </c>
       <c r="O14">
-        <v>2.775557561562891E-17</v>
+        <v>0.001691495965239015</v>
       </c>
       <c r="P14">
-        <v>1.110223024625157E-16</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q14">
-        <v>5.551115123125783E-17</v>
+        <v>0.00312603096825842</v>
       </c>
       <c r="R14">
-        <v>1.419499438627879E-16</v>
+        <v>0.00865079365079382</v>
       </c>
       <c r="S14">
-        <v>1.126083353548373E-16</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T14">
-        <v>1.701020277014972E-16</v>
+        <v>0.009579052038449016</v>
       </c>
       <c r="U14" t="s">
         <v>32</v>
@@ -1418,31 +1418,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L15">
-        <v>0.1955307262569832</v>
+        <v>0.1977715877437326</v>
       </c>
       <c r="M15">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>0.3263403263403263</v>
+        <v>0.3302325581395349</v>
       </c>
       <c r="O15">
-        <v>2.775557561562891E-17</v>
+        <v>0.002240861486749401</v>
       </c>
       <c r="P15">
-        <v>1.110223024625157E-16</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q15">
-        <v>5.551115123125783E-17</v>
+        <v>0.003892231799208612</v>
       </c>
       <c r="R15">
-        <v>1.419499438627879E-16</v>
+        <v>0.01146040588937551</v>
       </c>
       <c r="S15">
-        <v>1.126083353548373E-16</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T15">
-        <v>1.701020277014972E-16</v>
+        <v>0.01192691029900353</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -1483,31 +1483,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L16">
-        <v>0.1955307262569832</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M16">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>0.3263403263403263</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O16">
-        <v>2.775557561562891E-17</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P16">
-        <v>1.110223024625157E-16</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q16">
-        <v>5.551115123125783E-17</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R16">
-        <v>1.419499438627879E-16</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S16">
-        <v>1.126083353548373E-16</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T16">
-        <v>1.701020277014972E-16</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U16" t="s">
         <v>32</v>
@@ -1675,31 +1675,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L19">
-        <v>0.1955307262569832</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="M19">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="N19">
-        <v>0.3263403263403263</v>
+        <v>0.3294663573085847</v>
       </c>
       <c r="O19">
-        <v>2.775557561562891E-17</v>
+        <v>0.001691495965239015</v>
       </c>
       <c r="P19">
-        <v>1.110223024625157E-16</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q19">
-        <v>5.551115123125783E-17</v>
+        <v>0.00312603096825842</v>
       </c>
       <c r="R19">
-        <v>1.419499438627879E-16</v>
+        <v>0.00865079365079382</v>
       </c>
       <c r="S19">
-        <v>1.126083353548373E-16</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T19">
-        <v>1.701020277014972E-16</v>
+        <v>0.009579052038449016</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -1740,31 +1740,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L20">
-        <v>0.1955307262569832</v>
+        <v>0.1972222222222222</v>
       </c>
       <c r="M20">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>0.3263403263403263</v>
+        <v>0.3294663573085847</v>
       </c>
       <c r="O20">
-        <v>2.775557561562891E-17</v>
+        <v>0.001691495965239015</v>
       </c>
       <c r="P20">
-        <v>1.110223024625157E-16</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q20">
-        <v>5.551115123125783E-17</v>
+        <v>0.00312603096825842</v>
       </c>
       <c r="R20">
-        <v>1.419499438627879E-16</v>
+        <v>0.00865079365079382</v>
       </c>
       <c r="S20">
-        <v>1.126083353548373E-16</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T20">
-        <v>1.701020277014972E-16</v>
+        <v>0.009579052038449016</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1805,31 +1805,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L21">
-        <v>0.1955307262569832</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M21">
-        <v>0.9859154929577465</v>
+        <v>1</v>
       </c>
       <c r="N21">
-        <v>0.3263403263403263</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O21">
-        <v>2.775557561562891E-17</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P21">
-        <v>1.110223024625157E-16</v>
+        <v>0.01408450704225361</v>
       </c>
       <c r="Q21">
-        <v>5.551115123125783E-17</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R21">
-        <v>1.419499438627879E-16</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S21">
-        <v>1.126083353548373E-16</v>
+        <v>0.01428571428571438</v>
       </c>
       <c r="T21">
-        <v>1.701020277014972E-16</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U21" t="s">
         <v>32</v>
@@ -2127,31 +2127,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L26">
-        <v>0.8823529411764706</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M26">
-        <v>0.2112676056338028</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N26">
-        <v>0.3409090909090909</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O26">
-        <v>0.02521008403361347</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>0.04225352112676062</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q26">
-        <v>0.05855614973262036</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>0.02941176470588238</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>0.2500000000000004</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T26">
-        <v>0.2073863636363638</v>
+        <v>0</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2319,31 +2319,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L29">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M29">
-        <v>0.2253521126760563</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N29">
-        <v>0.3595505617977529</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O29">
-        <v>0.03174603174603174</v>
+        <v>0</v>
       </c>
       <c r="P29">
-        <v>0.05633802816901415</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q29">
-        <v>0.07719762062128227</v>
+        <v>0</v>
       </c>
       <c r="R29">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="S29">
-        <v>0.3333333333333338</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T29">
-        <v>0.2734082397003747</v>
+        <v>0</v>
       </c>
       <c r="U29" t="s">
         <v>33</v>
@@ -2384,31 +2384,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L30">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M30">
-        <v>0.2253521126760563</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N30">
-        <v>0.3595505617977529</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O30">
-        <v>0.03174603174603174</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>0.05633802816901415</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q30">
-        <v>0.07719762062128227</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>0.3333333333333338</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T30">
-        <v>0.2734082397003747</v>
+        <v>0</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2449,31 +2449,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L31">
-        <v>0.8888888888888888</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="M31">
-        <v>0.2253521126760563</v>
+        <v>0.1690140845070423</v>
       </c>
       <c r="N31">
-        <v>0.3595505617977529</v>
+        <v>0.2823529411764706</v>
       </c>
       <c r="O31">
-        <v>0.03174603174603174</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0.05633802816901415</v>
+        <v>5.551115123125783E-17</v>
       </c>
       <c r="Q31">
-        <v>0.07719762062128227</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0.03703703703703703</v>
+        <v>0</v>
       </c>
       <c r="S31">
-        <v>0.3333333333333338</v>
+        <v>3.284409781182756E-16</v>
       </c>
       <c r="T31">
-        <v>0.2734082397003747</v>
+        <v>0</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2771,31 +2771,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L36">
-        <v>0.7692307692307693</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="M36">
+        <v>0.352112676056338</v>
+      </c>
+      <c r="N36">
+        <v>0.4761904761904762</v>
+      </c>
+      <c r="O36">
+        <v>0.02100840336134457</v>
+      </c>
+      <c r="P36">
         <v>0.2816901408450704</v>
       </c>
-      <c r="N36">
-        <v>0.4123711340206186</v>
-      </c>
-      <c r="O36">
-        <v>0.05494505494505497</v>
-      </c>
-      <c r="P36">
-        <v>0.2112676056338028</v>
-      </c>
       <c r="Q36">
-        <v>0.2841660058154904</v>
+        <v>0.347985347985348</v>
       </c>
       <c r="R36">
-        <v>0.07692307692307696</v>
+        <v>0.0294117647058824</v>
       </c>
       <c r="S36">
-        <v>3.000000000000001</v>
+        <v>4</v>
       </c>
       <c r="T36">
-        <v>2.216494845360825</v>
+        <v>2.714285714285714</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>

--- a/analysis/edcr/out/top_f1/magnesium_shift_new_20_results.xlsx
+++ b/analysis/edcr/out/top_f1/magnesium_shift_new_20_results.xlsx
@@ -555,7 +555,7 @@
         <v>29</v>
       </c>
       <c r="D2">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E2">
         <v>0.5168539325842697</v>
@@ -620,7 +620,7 @@
         <v>29</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E3">
         <v>0.5168539325842697</v>
@@ -685,7 +685,7 @@
         <v>29</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E4">
         <v>0.5168539325842697</v>
@@ -750,7 +750,7 @@
         <v>29</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E5">
         <v>0.5168539325842697</v>
@@ -815,7 +815,7 @@
         <v>29</v>
       </c>
       <c r="D6">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E6">
         <v>0.5168539325842697</v>
@@ -877,7 +877,7 @@
         <v>30</v>
       </c>
       <c r="D7">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E7">
         <v>0.5168539325842697</v>
@@ -942,7 +942,7 @@
         <v>30</v>
       </c>
       <c r="D8">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E8">
         <v>0.5168539325842697</v>
@@ -1007,7 +1007,7 @@
         <v>30</v>
       </c>
       <c r="D9">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0.5168539325842697</v>
@@ -1072,7 +1072,7 @@
         <v>30</v>
       </c>
       <c r="D10">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0.5168539325842697</v>
@@ -1137,7 +1137,7 @@
         <v>30</v>
       </c>
       <c r="D11">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E11">
         <v>0.5168539325842697</v>
@@ -1199,7 +1199,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E12">
         <v>0.1955307262569832</v>
@@ -1223,31 +1223,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L12">
-        <v>0.1977715877437326</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M12">
         <v>1</v>
       </c>
       <c r="N12">
-        <v>0.3302325581395349</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O12">
-        <v>0.002240861486749401</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P12">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q12">
-        <v>0.003892231799208612</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R12">
-        <v>0.01146040588937551</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S12">
         <v>0.01428571428571438</v>
       </c>
       <c r="T12">
-        <v>0.01192691029900353</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U12" t="s">
         <v>32</v>
@@ -1264,7 +1264,7 @@
         <v>29</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E13">
         <v>0.1955307262569832</v>
@@ -1288,31 +1288,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L13">
-        <v>0.1977715877437326</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M13">
         <v>1</v>
       </c>
       <c r="N13">
-        <v>0.3302325581395349</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O13">
-        <v>0.002240861486749401</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P13">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q13">
-        <v>0.003892231799208612</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R13">
-        <v>0.01146040588937551</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S13">
         <v>0.01428571428571438</v>
       </c>
       <c r="T13">
-        <v>0.01192691029900353</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U13" t="s">
         <v>32</v>
@@ -1329,7 +1329,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E14">
         <v>0.1955307262569832</v>
@@ -1394,7 +1394,7 @@
         <v>29</v>
       </c>
       <c r="D15">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E15">
         <v>0.1955307262569832</v>
@@ -1418,31 +1418,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L15">
-        <v>0.1977715877437326</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M15">
         <v>1</v>
       </c>
       <c r="N15">
-        <v>0.3302325581395349</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O15">
-        <v>0.002240861486749401</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P15">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q15">
-        <v>0.003892231799208612</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R15">
-        <v>0.01146040588937551</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S15">
         <v>0.01428571428571438</v>
       </c>
       <c r="T15">
-        <v>0.01192691029900353</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U15" t="s">
         <v>32</v>
@@ -1459,7 +1459,7 @@
         <v>29</v>
       </c>
       <c r="D16">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E16">
         <v>0.1955307262569832</v>
@@ -1521,7 +1521,7 @@
         <v>30</v>
       </c>
       <c r="D17">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E17">
         <v>0.1955307262569832</v>
@@ -1545,31 +1545,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L17">
-        <v>0.1972222222222222</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M17">
         <v>1</v>
       </c>
       <c r="N17">
-        <v>0.3294663573085847</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O17">
-        <v>0.001691495965239015</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P17">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q17">
-        <v>0.00312603096825842</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R17">
-        <v>0.00865079365079382</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S17">
         <v>0.01428571428571438</v>
       </c>
       <c r="T17">
-        <v>0.009579052038449016</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U17" t="s">
         <v>32</v>
@@ -1586,7 +1586,7 @@
         <v>30</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E18">
         <v>0.1955307262569832</v>
@@ -1610,31 +1610,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L18">
-        <v>0.1972222222222222</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M18">
         <v>1</v>
       </c>
       <c r="N18">
-        <v>0.3294663573085847</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O18">
-        <v>0.001691495965239015</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P18">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q18">
-        <v>0.00312603096825842</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R18">
-        <v>0.00865079365079382</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S18">
         <v>0.01428571428571438</v>
       </c>
       <c r="T18">
-        <v>0.009579052038449016</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U18" t="s">
         <v>32</v>
@@ -1651,7 +1651,7 @@
         <v>30</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E19">
         <v>0.1955307262569832</v>
@@ -1675,31 +1675,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L19">
-        <v>0.1972222222222222</v>
+        <v>0.1924119241192412</v>
       </c>
       <c r="M19">
         <v>1</v>
       </c>
       <c r="N19">
-        <v>0.3294663573085847</v>
+        <v>0.3227272727272727</v>
       </c>
       <c r="O19">
-        <v>0.001691495965239015</v>
+        <v>-0.003118802137742016</v>
       </c>
       <c r="P19">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q19">
-        <v>0.00312603096825842</v>
+        <v>-0.003613053613053585</v>
       </c>
       <c r="R19">
-        <v>0.00865079365079382</v>
+        <v>-0.01595044521873774</v>
       </c>
       <c r="S19">
         <v>0.01428571428571438</v>
       </c>
       <c r="T19">
-        <v>0.009579052038449016</v>
+        <v>-0.01107142857142849</v>
       </c>
       <c r="U19" t="s">
         <v>32</v>
@@ -1716,7 +1716,7 @@
         <v>30</v>
       </c>
       <c r="D20">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E20">
         <v>0.1955307262569832</v>
@@ -1740,31 +1740,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L20">
-        <v>0.1972222222222222</v>
+        <v>0.1955922865013774</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>0.3294663573085847</v>
+        <v>0.3271889400921659</v>
       </c>
       <c r="O20">
-        <v>0.001691495965239015</v>
+        <v>6.156024439421537E-05</v>
       </c>
       <c r="P20">
         <v>0.01408450704225361</v>
       </c>
       <c r="Q20">
-        <v>0.00312603096825842</v>
+        <v>0.0008486137518395886</v>
       </c>
       <c r="R20">
-        <v>0.00865079365079382</v>
+        <v>0.0003148366784732729</v>
       </c>
       <c r="S20">
         <v>0.01428571428571438</v>
       </c>
       <c r="T20">
-        <v>0.009579052038449016</v>
+        <v>0.002600394996708454</v>
       </c>
       <c r="U20" t="s">
         <v>32</v>
@@ -1781,7 +1781,7 @@
         <v>30</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E21">
         <v>0.1955307262569832</v>
@@ -1843,7 +1843,7 @@
         <v>29</v>
       </c>
       <c r="D22">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E22">
         <v>0.8571428571428571</v>
@@ -1867,31 +1867,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L22">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="M22">
-        <v>0.1690140845070423</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="N22">
-        <v>0.2823529411764706</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="P22">
-        <v>5.551115123125783E-17</v>
+        <v>0.08450704225352118</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>0.113251454427925</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>0.05000000000000009</v>
       </c>
       <c r="S22">
-        <v>3.284409781182756E-16</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="U22" t="s">
         <v>33</v>
@@ -1908,7 +1908,7 @@
         <v>29</v>
       </c>
       <c r="D23">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E23">
         <v>0.8571428571428571</v>
@@ -1932,31 +1932,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L23">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="M23">
-        <v>0.1690140845070423</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="N23">
-        <v>0.2823529411764706</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="P23">
-        <v>5.551115123125783E-17</v>
+        <v>0.08450704225352118</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.113251454427925</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.05000000000000009</v>
       </c>
       <c r="S23">
-        <v>3.284409781182756E-16</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="U23" t="s">
         <v>33</v>
@@ -1973,7 +1973,7 @@
         <v>29</v>
       </c>
       <c r="D24">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E24">
         <v>0.8571428571428571</v>
@@ -2038,7 +2038,7 @@
         <v>29</v>
       </c>
       <c r="D25">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E25">
         <v>0.8571428571428571</v>
@@ -2062,31 +2062,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L25">
-        <v>0.8823529411764706</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M25">
-        <v>0.2112676056338028</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N25">
-        <v>0.3409090909090909</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="O25">
-        <v>0.02521008403361347</v>
+        <v>0.05194805194805197</v>
       </c>
       <c r="P25">
-        <v>0.04225352112676062</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="Q25">
-        <v>0.05855614973262036</v>
+        <v>0.1477545857052499</v>
       </c>
       <c r="R25">
-        <v>0.02941176470588238</v>
+        <v>0.06060606060606063</v>
       </c>
       <c r="S25">
-        <v>0.2500000000000004</v>
+        <v>0.6666666666666673</v>
       </c>
       <c r="T25">
-        <v>0.2073863636363638</v>
+        <v>0.5232974910394266</v>
       </c>
       <c r="U25" t="s">
         <v>33</v>
@@ -2103,7 +2103,7 @@
         <v>29</v>
       </c>
       <c r="D26">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E26">
         <v>0.8571428571428571</v>
@@ -2127,31 +2127,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L26">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="M26">
-        <v>0.1690140845070423</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="N26">
-        <v>0.2823529411764706</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="P26">
-        <v>5.551115123125783E-17</v>
+        <v>0.08450704225352118</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>0.113251454427925</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.05000000000000009</v>
       </c>
       <c r="S26">
-        <v>3.284409781182756E-16</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="U26" t="s">
         <v>33</v>
@@ -2165,7 +2165,7 @@
         <v>30</v>
       </c>
       <c r="D27">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E27">
         <v>0.8571428571428571</v>
@@ -2189,31 +2189,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L27">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="M27">
-        <v>0.1690140845070423</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="N27">
-        <v>0.2823529411764706</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="P27">
-        <v>5.551115123125783E-17</v>
+        <v>0.08450704225352118</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.113251454427925</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>0.05000000000000009</v>
       </c>
       <c r="S27">
-        <v>3.284409781182756E-16</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T27">
-        <v>0</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="U27" t="s">
         <v>33</v>
@@ -2230,7 +2230,7 @@
         <v>30</v>
       </c>
       <c r="D28">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E28">
         <v>0.8571428571428571</v>
@@ -2254,31 +2254,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L28">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="M28">
-        <v>0.1690140845070423</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="N28">
-        <v>0.2823529411764706</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="P28">
-        <v>5.551115123125783E-17</v>
+        <v>0.08450704225352118</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>0.113251454427925</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>0.05000000000000009</v>
       </c>
       <c r="S28">
-        <v>3.284409781182756E-16</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="U28" t="s">
         <v>33</v>
@@ -2295,7 +2295,7 @@
         <v>30</v>
       </c>
       <c r="D29">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E29">
         <v>0.8571428571428571</v>
@@ -2319,31 +2319,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L29">
-        <v>0.8571428571428571</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="M29">
-        <v>0.1690140845070423</v>
+        <v>0.2253521126760563</v>
       </c>
       <c r="N29">
-        <v>0.2823529411764706</v>
+        <v>0.3595505617977529</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="P29">
-        <v>5.551115123125783E-17</v>
+        <v>0.05633802816901415</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>0.07719762062128227</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="S29">
-        <v>3.284409781182756E-16</v>
+        <v>0.3333333333333338</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.2734082397003747</v>
       </c>
       <c r="U29" t="s">
         <v>33</v>
@@ -2360,7 +2360,7 @@
         <v>30</v>
       </c>
       <c r="D30">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E30">
         <v>0.8571428571428571</v>
@@ -2384,31 +2384,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L30">
-        <v>0.8571428571428571</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="M30">
-        <v>0.1690140845070423</v>
+        <v>0.2816901408450704</v>
       </c>
       <c r="N30">
-        <v>0.2823529411764706</v>
+        <v>0.4301075268817204</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.05194805194805197</v>
       </c>
       <c r="P30">
-        <v>5.551115123125783E-17</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>0.1477545857052499</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.06060606060606063</v>
       </c>
       <c r="S30">
-        <v>3.284409781182756E-16</v>
+        <v>0.6666666666666673</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>0.5232974910394266</v>
       </c>
       <c r="U30" t="s">
         <v>33</v>
@@ -2425,7 +2425,7 @@
         <v>30</v>
       </c>
       <c r="D31">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E31">
         <v>0.8571428571428571</v>
@@ -2449,31 +2449,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L31">
-        <v>0.8571428571428571</v>
+        <v>0.9</v>
       </c>
       <c r="M31">
-        <v>0.1690140845070423</v>
+        <v>0.2535211267605634</v>
       </c>
       <c r="N31">
-        <v>0.2823529411764706</v>
+        <v>0.3956043956043956</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.04285714285714293</v>
       </c>
       <c r="P31">
-        <v>5.551115123125783E-17</v>
+        <v>0.08450704225352118</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>0.113251454427925</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>0.05000000000000009</v>
       </c>
       <c r="S31">
-        <v>3.284409781182756E-16</v>
+        <v>0.5000000000000004</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.4010989010989011</v>
       </c>
       <c r="U31" t="s">
         <v>33</v>
@@ -2487,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="D32">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E32">
         <v>0.7142857142857143</v>
@@ -2511,31 +2511,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L32">
-        <v>0.7352941176470589</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="M32">
-        <v>0.352112676056338</v>
+        <v>0.3943661971830986</v>
       </c>
       <c r="N32">
-        <v>0.4761904761904762</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="O32">
-        <v>0.02100840336134457</v>
+        <v>0.0424710424710425</v>
       </c>
       <c r="P32">
-        <v>0.2816901408450704</v>
+        <v>0.323943661971831</v>
       </c>
       <c r="Q32">
-        <v>0.347985347985348</v>
+        <v>0.3903133903133903</v>
       </c>
       <c r="R32">
-        <v>0.0294117647058824</v>
+        <v>0.0594594594594595</v>
       </c>
       <c r="S32">
-        <v>4</v>
+        <v>4.600000000000001</v>
       </c>
       <c r="T32">
-        <v>2.714285714285714</v>
+        <v>3.044444444444445</v>
       </c>
       <c r="U32" t="s">
         <v>34</v>
@@ -2552,7 +2552,7 @@
         <v>29</v>
       </c>
       <c r="D33">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E33">
         <v>0.7142857142857143</v>
@@ -2576,31 +2576,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L33">
-        <v>0.7352941176470589</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="M33">
-        <v>0.352112676056338</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="N33">
-        <v>0.4761904761904762</v>
+        <v>0.4952380952380953</v>
       </c>
       <c r="O33">
-        <v>0.02100840336134457</v>
+        <v>0.05042016806722682</v>
       </c>
       <c r="P33">
-        <v>0.2816901408450704</v>
+        <v>0.295774647887324</v>
       </c>
       <c r="Q33">
-        <v>0.347985347985348</v>
+        <v>0.3670329670329671</v>
       </c>
       <c r="R33">
-        <v>0.0294117647058824</v>
+        <v>0.07058823529411755</v>
       </c>
       <c r="S33">
-        <v>4</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="T33">
-        <v>2.714285714285714</v>
+        <v>2.862857142857143</v>
       </c>
       <c r="U33" t="s">
         <v>34</v>
@@ -2617,7 +2617,7 @@
         <v>29</v>
       </c>
       <c r="D34">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E34">
         <v>0.7142857142857143</v>
@@ -2641,31 +2641,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L34">
-        <v>0.7692307692307693</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="M34">
-        <v>0.2816901408450704</v>
+        <v>0.2112676056338028</v>
       </c>
       <c r="N34">
-        <v>0.4123711340206186</v>
+        <v>0.3333333333333334</v>
       </c>
       <c r="O34">
-        <v>0.05494505494505497</v>
+        <v>0.07518796992481203</v>
       </c>
       <c r="P34">
-        <v>0.2112676056338028</v>
+        <v>0.1408450704225352</v>
       </c>
       <c r="Q34">
-        <v>0.2841660058154904</v>
+        <v>0.2051282051282052</v>
       </c>
       <c r="R34">
-        <v>0.07692307692307696</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S34">
-        <v>3.000000000000001</v>
+        <v>2</v>
       </c>
       <c r="T34">
-        <v>2.216494845360825</v>
+        <v>1.600000000000001</v>
       </c>
       <c r="U34" t="s">
         <v>34</v>
@@ -2682,7 +2682,7 @@
         <v>29</v>
       </c>
       <c r="D35">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E35">
         <v>0.7142857142857143</v>
@@ -2706,31 +2706,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L35">
-        <v>0.7692307692307693</v>
+        <v>0.75</v>
       </c>
       <c r="M35">
-        <v>0.2816901408450704</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="N35">
-        <v>0.4123711340206186</v>
+        <v>0.4660194174757282</v>
       </c>
       <c r="O35">
-        <v>0.05494505494505497</v>
+        <v>0.0357142857142857</v>
       </c>
       <c r="P35">
-        <v>0.2112676056338028</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="Q35">
-        <v>0.2841660058154904</v>
+        <v>0.3378142892706</v>
       </c>
       <c r="R35">
-        <v>0.07692307692307696</v>
+        <v>0.04999999999999998</v>
       </c>
       <c r="S35">
-        <v>3.000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="T35">
-        <v>2.216494845360825</v>
+        <v>2.63495145631068</v>
       </c>
       <c r="U35" t="s">
         <v>34</v>
@@ -2747,7 +2747,7 @@
         <v>29</v>
       </c>
       <c r="D36">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E36">
         <v>0.7142857142857143</v>
@@ -2771,31 +2771,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L36">
-        <v>0.7352941176470589</v>
+        <v>0.7428571428571429</v>
       </c>
       <c r="M36">
-        <v>0.352112676056338</v>
+        <v>0.3661971830985916</v>
       </c>
       <c r="N36">
-        <v>0.4761904761904762</v>
+        <v>0.4905660377358491</v>
       </c>
       <c r="O36">
-        <v>0.02100840336134457</v>
+        <v>0.02857142857142858</v>
       </c>
       <c r="P36">
-        <v>0.2816901408450704</v>
+        <v>0.295774647887324</v>
       </c>
       <c r="Q36">
-        <v>0.347985347985348</v>
+        <v>0.3623609095307209</v>
       </c>
       <c r="R36">
-        <v>0.0294117647058824</v>
+        <v>0.04000000000000001</v>
       </c>
       <c r="S36">
-        <v>4</v>
+        <v>4.200000000000001</v>
       </c>
       <c r="T36">
-        <v>2.714285714285714</v>
+        <v>2.826415094339623</v>
       </c>
       <c r="U36" t="s">
         <v>34</v>
@@ -2809,7 +2809,7 @@
         <v>30</v>
       </c>
       <c r="D37">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E37">
         <v>0.7142857142857143</v>
@@ -2833,31 +2833,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L37">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M37">
-        <v>0.2816901408450704</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="N37">
-        <v>0.4123711340206186</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="O37">
-        <v>0.05494505494505497</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P37">
-        <v>0.2112676056338028</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="Q37">
-        <v>0.2841660058154904</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R37">
-        <v>0.07692307692307696</v>
+        <v>0.01818181818181819</v>
       </c>
       <c r="S37">
-        <v>3.000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="T37">
-        <v>2.216494845360825</v>
+        <v>2.6</v>
       </c>
       <c r="U37" t="s">
         <v>34</v>
@@ -2874,7 +2874,7 @@
         <v>30</v>
       </c>
       <c r="D38">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E38">
         <v>0.7142857142857143</v>
@@ -2939,7 +2939,7 @@
         <v>30</v>
       </c>
       <c r="D39">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>0.7142857142857143</v>
@@ -2963,31 +2963,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L39">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M39">
-        <v>0.2816901408450704</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="N39">
-        <v>0.4123711340206186</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="O39">
-        <v>0.05494505494505497</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P39">
-        <v>0.2112676056338028</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="Q39">
-        <v>0.2841660058154904</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R39">
-        <v>0.07692307692307696</v>
+        <v>0.01818181818181819</v>
       </c>
       <c r="S39">
-        <v>3.000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="T39">
-        <v>2.216494845360825</v>
+        <v>2.6</v>
       </c>
       <c r="U39" t="s">
         <v>34</v>
@@ -3004,7 +3004,7 @@
         <v>30</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E40">
         <v>0.7142857142857143</v>
@@ -3028,31 +3028,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L40">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M40">
-        <v>0.2816901408450704</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="N40">
-        <v>0.4123711340206186</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="O40">
-        <v>0.05494505494505497</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P40">
-        <v>0.2112676056338028</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="Q40">
-        <v>0.2841660058154904</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R40">
-        <v>0.07692307692307696</v>
+        <v>0.01818181818181819</v>
       </c>
       <c r="S40">
-        <v>3.000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="T40">
-        <v>2.216494845360825</v>
+        <v>2.6</v>
       </c>
       <c r="U40" t="s">
         <v>34</v>
@@ -3069,7 +3069,7 @@
         <v>30</v>
       </c>
       <c r="D41">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="E41">
         <v>0.7142857142857143</v>
@@ -3093,31 +3093,31 @@
         <v>0.1924119241192412</v>
       </c>
       <c r="L41">
-        <v>0.7692307692307693</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="M41">
-        <v>0.2816901408450704</v>
+        <v>0.3380281690140845</v>
       </c>
       <c r="N41">
-        <v>0.4123711340206186</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="O41">
-        <v>0.05494505494505497</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="P41">
-        <v>0.2112676056338028</v>
+        <v>0.2676056338028169</v>
       </c>
       <c r="Q41">
-        <v>0.2841660058154904</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="R41">
-        <v>0.07692307692307696</v>
+        <v>0.01818181818181819</v>
       </c>
       <c r="S41">
-        <v>3.000000000000001</v>
+        <v>3.8</v>
       </c>
       <c r="T41">
-        <v>2.216494845360825</v>
+        <v>2.6</v>
       </c>
       <c r="U41" t="s">
         <v>34</v>
